--- a/etc/test.xlsx
+++ b/etc/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\n8tz\various\mama-updater\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\n8tz\various\play-with-rs\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62264EB1-C9D8-4768-ACAE-72B32EF31912}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2427B597-C097-4A08-9648-19E048A91DE1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="-120" windowWidth="37665" windowHeight="21840" xr2:uid="{0EC2C4C3-7695-4E6A-81D0-1B6A8B21F91A}"/>
+    <workbookView xWindow="5265" yWindow="4290" windowWidth="18210" windowHeight="11985" xr2:uid="{0EC2C4C3-7695-4E6A-81D0-1B6A8B21F91A}"/>
   </bookViews>
   <sheets>
     <sheet name="events" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="179">
-  <si>
-    <t>Ven 01/02</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="144">
   <si>
     <t>19h00</t>
   </si>
@@ -208,9 +205,6 @@
     <t>(Techno)</t>
   </si>
   <si>
-    <t>Sam 02/02</t>
-  </si>
-  <si>
     <t>(Mus Baroque)</t>
   </si>
   <si>
@@ -280,9 +274,6 @@
     <t>10€/17€</t>
   </si>
   <si>
-    <t>Dim 03/02</t>
-  </si>
-  <si>
     <t>11h00</t>
   </si>
   <si>
@@ -295,63 +286,6 @@
     <t>WillieCarterS</t>
   </si>
   <si>
-    <t xml:space="preserve"> Lun 04/02</t>
-  </si>
-  <si>
-    <t>Jungle Pub</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mar 05/02</t>
-  </si>
-  <si>
-    <t>GAM</t>
-  </si>
-  <si>
-    <t>(Electro-Jazz)</t>
-  </si>
-  <si>
-    <t>Gazette Café</t>
-  </si>
-  <si>
-    <t>(Jazz&amp;More)</t>
-  </si>
-  <si>
-    <t>Les Garçons</t>
-  </si>
-  <si>
-    <t>Red Turtle</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mer 06/02</t>
-  </si>
-  <si>
-    <t>(Indie/Post-Punk)</t>
-  </si>
-  <si>
-    <t>L’Angelus</t>
-  </si>
-  <si>
-    <t>(Rock/Punk)</t>
-  </si>
-  <si>
-    <t>(Bal Rorro)</t>
-  </si>
-  <si>
-    <t>(Pop/Folk/Chanson)</t>
-  </si>
-  <si>
-    <t>(Hip-Hop/Jazz)</t>
-  </si>
-  <si>
-    <t>(Folk)</t>
-  </si>
-  <si>
-    <t>Patio</t>
-  </si>
-  <si>
-    <t>(Chanson française)</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -499,54 +433,6 @@
     <t>BAPTISTE &amp; ELVIRA</t>
   </si>
   <si>
-    <t>MANU CHEVALIER &amp; THE BLUE NOTE QUINTET</t>
-  </si>
-  <si>
-    <t>JUNGLE JAM « SCÈNE OUVERTE »</t>
-  </si>
-  <si>
-    <t>SCÈNE OUVERTE IEFAR</t>
-  </si>
-  <si>
-    <t>ZYLIA</t>
-  </si>
-  <si>
-    <t>JAM SESSION JAZZ</t>
-  </si>
-  <si>
-    <t>SCÈNE OUVERTE JAM</t>
-  </si>
-  <si>
-    <t>JAM MUSIQUE DU MONDE</t>
-  </si>
-  <si>
-    <t>PREOCCUPATIONS « EX VIETCONG »</t>
-  </si>
-  <si>
-    <t>MUSCADE JAZZ BAND « PIANO-VIOLON »</t>
-  </si>
-  <si>
-    <t>MICHAEL GRAVES</t>
-  </si>
-  <si>
-    <t>LÉO CORRÊA</t>
-  </si>
-  <si>
-    <t>POM &amp; LOM +GUEST</t>
-  </si>
-  <si>
-    <t>RIMES EN RYTHME + JAM SESSION</t>
-  </si>
-  <si>
-    <t>QUENTIN SAUVÉ / ORBEL / CROW</t>
-  </si>
-  <si>
-    <t>SOIRÉE KARAOKÉ AVEC MUSICIENS À DISPO</t>
-  </si>
-  <si>
-    <t>LES AUTRES</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -563,6 +449,15 @@
   </si>
   <si>
     <t>LIEU_ID</t>
+  </si>
+  <si>
+    <t>Ven 22/03</t>
+  </si>
+  <si>
+    <t>Sam 23/03</t>
+  </si>
+  <si>
+    <t>Dim 24/04</t>
   </si>
 </sst>
 </file>
@@ -1001,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52B9A12-78B7-40F9-A1D7-05D4BC4B7090}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,30 +911,30 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -1050,19 +945,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="F3" s="12">
         <v>12</v>
@@ -1073,19 +968,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="F4" s="12">
         <v>41</v>
@@ -1096,19 +991,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F5" s="12">
         <v>85</v>
@@ -1119,16 +1014,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E6" s="4">
         <v>10</v>
@@ -1142,19 +1037,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="F7" s="12">
         <v>9</v>
@@ -1165,19 +1060,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="F8" s="12">
         <v>71</v>
@@ -1188,19 +1083,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="12">
         <v>9</v>
@@ -1211,19 +1106,19 @@
     </row>
     <row r="10" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F10" s="12">
         <v>71</v>
@@ -1234,16 +1129,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E11" s="4">
         <v>5</v>
@@ -1257,19 +1152,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" s="12">
         <v>67</v>
@@ -1280,19 +1175,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" s="12">
         <v>57</v>
@@ -1303,16 +1198,16 @@
     </row>
     <row r="14" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="E14" s="4">
         <v>5</v>
@@ -1326,19 +1221,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="12">
         <v>17</v>
@@ -1349,19 +1244,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="12">
         <v>19</v>
@@ -1372,19 +1267,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="12">
         <v>69</v>
@@ -1395,19 +1290,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="12">
         <v>20</v>
@@ -1418,19 +1313,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="F19" s="12">
         <v>95</v>
@@ -1441,19 +1336,19 @@
     </row>
     <row r="20" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" s="12">
         <v>32</v>
@@ -1464,19 +1359,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="12">
         <v>62</v>
@@ -1487,19 +1382,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E22" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="12">
         <v>70</v>
@@ -1510,16 +1405,16 @@
     </row>
     <row r="23" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E23" s="4">
         <v>10</v>
@@ -1533,16 +1428,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E24" s="4">
         <v>8</v>
@@ -1556,16 +1451,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" s="4">
         <v>10</v>
@@ -1579,10 +1474,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
@@ -1592,19 +1487,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="F27" s="12">
         <v>54</v>
@@ -1615,19 +1510,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F28" s="12">
         <v>35</v>
@@ -1638,16 +1533,16 @@
     </row>
     <row r="29" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" s="4">
         <v>7</v>
@@ -1661,19 +1556,19 @@
     </row>
     <row r="30" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" s="12">
         <v>19</v>
@@ -1684,19 +1579,19 @@
     </row>
     <row r="31" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31" s="12">
         <v>41</v>
@@ -1707,16 +1602,16 @@
     </row>
     <row r="32" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E32" s="4">
         <v>5</v>
@@ -1730,19 +1625,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F33" s="12">
         <v>84</v>
@@ -1753,19 +1648,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F34" s="12">
         <v>39</v>
@@ -1776,19 +1671,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="E35" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F35" s="12">
         <v>17</v>
@@ -1799,19 +1694,19 @@
     </row>
     <row r="36" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E36" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F36" s="12">
         <v>20</v>
@@ -1822,19 +1717,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F37" s="12">
         <v>6</v>
@@ -1845,16 +1740,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E38" s="4">
         <v>8</v>
@@ -1868,19 +1763,19 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F39" s="12">
         <v>50</v>
@@ -1891,19 +1786,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F40" s="12">
         <v>95</v>
@@ -1914,19 +1809,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F41" s="12">
         <v>93</v>
@@ -1937,19 +1832,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F42" s="12">
         <v>79</v>
@@ -1960,16 +1855,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E43" s="4">
         <v>10</v>
@@ -1983,19 +1878,19 @@
     </row>
     <row r="44" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F44" s="12">
         <v>93</v>
@@ -2006,19 +1901,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F45" s="12">
         <v>93</v>
@@ -2029,10 +1924,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
@@ -2042,16 +1937,16 @@
     </row>
     <row r="47" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E47" s="4">
         <v>15</v>
@@ -2063,19 +1958,19 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F48" s="12">
         <v>44</v>
@@ -2085,71 +1980,35 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="A49" s="7"/>
+      <c r="B49" s="1"/>
       <c r="C49" s="2"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="13"/>
       <c r="G49" s="15"/>
     </row>
-    <row r="50" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="12">
-        <v>41</v>
-      </c>
-      <c r="G50" s="12">
-        <v>61</v>
-      </c>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="12">
-        <v>19</v>
-      </c>
-      <c r="G51" s="12">
-        <v>87</v>
-      </c>
+      <c r="A51" s="6"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="A52" s="7"/>
+      <c r="B52" s="1"/>
       <c r="C52" s="2"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2157,127 +2016,53 @@
       <c r="G52" s="15"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="12">
-        <v>19</v>
-      </c>
-      <c r="G53" s="12">
-        <v>55</v>
-      </c>
+      <c r="A53" s="6"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="12">
-        <v>43</v>
-      </c>
-      <c r="G54" s="12">
-        <v>19</v>
-      </c>
+      <c r="A54" s="6"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="12">
-        <v>41</v>
-      </c>
-      <c r="G55" s="12">
-        <v>33</v>
-      </c>
+      <c r="A55" s="6"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="12">
-        <v>19</v>
-      </c>
-      <c r="G56" s="12">
-        <v>59</v>
-      </c>
+      <c r="A56" s="6"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="12">
-        <v>95</v>
-      </c>
-      <c r="G57" s="12">
-        <v>16</v>
-      </c>
+      <c r="A57" s="6"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="A58" s="7"/>
+      <c r="B58" s="1"/>
       <c r="C58" s="2"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -2285,211 +2070,85 @@
       <c r="G58" s="15"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="4">
-        <v>16</v>
-      </c>
-      <c r="F59" s="12">
-        <v>86</v>
-      </c>
-      <c r="G59" s="12">
-        <v>17</v>
-      </c>
+      <c r="A59" s="6"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="12">
-        <v>41</v>
-      </c>
-      <c r="G60" s="12">
-        <v>24</v>
-      </c>
+      <c r="A60" s="6"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="4">
-        <v>14</v>
-      </c>
-      <c r="F61" s="12">
-        <v>71</v>
-      </c>
-      <c r="G61" s="12">
-        <v>60</v>
-      </c>
+      <c r="A61" s="6"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="12">
-        <v>55</v>
-      </c>
-      <c r="G62" s="12">
-        <v>19</v>
-      </c>
+      <c r="A62" s="6"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E63" s="4">
-        <v>3</v>
-      </c>
-      <c r="F63" s="12">
-        <v>6</v>
-      </c>
-      <c r="G63" s="12">
-        <v>42</v>
-      </c>
+      <c r="A63" s="6"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="12">
-        <v>39</v>
-      </c>
-      <c r="G64" s="12">
-        <v>36</v>
-      </c>
+      <c r="A64" s="6"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E65" s="4">
-        <v>5</v>
-      </c>
-      <c r="F65" s="12">
-        <v>83</v>
-      </c>
-      <c r="G65" s="12">
-        <v>4</v>
-      </c>
+      <c r="A65" s="6"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="12">
-        <v>19</v>
-      </c>
-      <c r="G66" s="12">
-        <v>97</v>
-      </c>
+      <c r="A66" s="6"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="12">
-        <v>5</v>
-      </c>
-      <c r="G67" s="12">
-        <v>16</v>
-      </c>
+      <c r="A67" s="6"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2509,15 +2168,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="B2">
         <v>2019</v>
